--- a/data/exampleComponents.xlsx
+++ b/data/exampleComponents.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">PartNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">EquipmentQtt</t>
+    <t xml:space="preserve">PartQuantity</t>
   </si>
   <si>
     <t xml:space="preserve">Description</t>
@@ -273,7 +273,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
